--- a/학습자료/단답형/국어_복습_2일차.xlsx
+++ b/학습자료/단답형/국어_복습_2일차.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>사자성어</t>
+          <t>한자어</t>
         </is>
       </c>
     </row>
